--- a/src/main/resources/2024.2_correct.xlsx
+++ b/src/main/resources/2024.2_correct.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekoca/Desktop/Persönlich/TaxiRechnungen/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCF4DFA-09A7-944D-BD61-15F250258446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FAA662-AF40-FA41-A7A6-CD7973D8DC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{E29335DA-9D6A-4D4F-89C3-F989C8FC26CC}"/>
+    <workbookView xWindow="5120" yWindow="2700" windowWidth="29040" windowHeight="15840" xr2:uid="{E29335DA-9D6A-4D4F-89C3-F989C8FC26CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -89,18 +89,9 @@
     <t>DATUM:</t>
   </si>
   <si>
-    <t>RECHNUNGSNR.: 36.3</t>
-  </si>
-  <si>
-    <t>Abrechnungsperiode: 01.01.2022 – 31.01.2022</t>
-  </si>
-  <si>
     <t>MwSt Nr: CHE-108.242.406</t>
   </si>
   <si>
-    <t>Summe Total inkl. 7.7% MwSt:</t>
-  </si>
-  <si>
     <t>Im Westfeld 17</t>
   </si>
   <si>
@@ -173,13 +164,22 @@
     <t>29.2.2024</t>
   </si>
   <si>
-    <t>Abrechnungsperiode 1.2.2024 - 30.2.2024</t>
-  </si>
-  <si>
-    <t>30.2.2024</t>
-  </si>
-  <si>
     <t>RECHNUNGSNR.: 24.2</t>
+  </si>
+  <si>
+    <t>Abrechnungsperiode 1.2.2024 - 29.2.2024</t>
+  </si>
+  <si>
+    <t>* Am 19. und 21. sind die Zeiten unterschiedlich:</t>
+  </si>
+  <si>
+    <t>Hinfahrt: Von Zuhause nach Dychrain, 9:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rückfahrt: Von Dychrain nach Hause, 12:00 Uhr </t>
+  </si>
+  <si>
+    <t>Summe Total inkl. 8.1% MwSt:</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;CHF&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +246,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -300,6 +307,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,16 +625,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BC3C87-E7E4-4331-8117-DBD5106A4834}">
   <dimension ref="A2:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="10.33203125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="11.5" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -641,7 +650,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -663,7 +672,9 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I6" s="8"/>
+      <c r="I6" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
       <c r="M6" s="3"/>
@@ -672,9 +683,11 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="3"/>
@@ -685,10 +698,12 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="14">
+        <v>45351</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="8"/>
       <c r="K8" s="3"/>
       <c r="L8" s="9"/>
       <c r="M8" s="3"/>
@@ -705,29 +720,29 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I10" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="3"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="9" t="n">
+      <c r="O10" s="9">
         <v>96.4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I11" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="3"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="9" t="n">
+      <c r="O11" s="9">
         <v>96.4</v>
       </c>
     </row>
@@ -741,15 +756,15 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I13" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="3"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="9">
         <v>96.4</v>
       </c>
     </row>
@@ -761,15 +776,15 @@
         <v>5</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="3"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="9" t="n">
+      <c r="O14" s="9">
         <v>96.4</v>
       </c>
     </row>
@@ -781,52 +796,52 @@
         <v>6</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="3"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="9" t="n">
+      <c r="O15" s="9">
         <v>96.4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="3"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="9" t="n">
+      <c r="O16" s="9">
         <v>96.4</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="3"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="9" t="n">
+      <c r="O17" s="9">
         <v>96.4</v>
       </c>
     </row>
@@ -840,43 +855,43 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I19" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="3"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="9" t="n">
+      <c r="O19" s="9">
         <v>96.4</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I20" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="3"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="9" t="n">
+      <c r="O20" s="9">
         <v>96.4</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I21" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="3"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="9" t="n">
+      <c r="O21" s="9">
         <v>96.4</v>
       </c>
     </row>
@@ -884,34 +899,34 @@
       <c r="C22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="12">
         <f>O42</f>
-        <v>2180.2788</v>
+        <v>2188.38</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="3"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="9" t="n">
+      <c r="O22" s="9">
         <v>96.4</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I23" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="3"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="9" t="n">
+      <c r="O23" s="9">
         <v>96.4</v>
       </c>
     </row>
@@ -925,57 +940,57 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I25" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="3"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="9" t="n">
+      <c r="O25" s="9">
         <v>96.4</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I26" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="3"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="9" t="n">
+      <c r="O26" s="9">
         <v>96.4</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I27" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="3"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="9" t="n">
+      <c r="O27" s="9">
         <v>96.4</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I28" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="3"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="9" t="n">
+      <c r="O28" s="9">
         <v>96.4</v>
       </c>
     </row>
@@ -984,15 +999,15 @@
         <v>7</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="3"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="9" t="n">
+      <c r="O29" s="9">
         <v>96.4</v>
       </c>
     </row>
@@ -1009,15 +1024,15 @@
         <v>0</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="3"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="9" t="n">
+      <c r="O31" s="9">
         <v>96.4</v>
       </c>
     </row>
@@ -1026,15 +1041,15 @@
         <v>9</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="3"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="9" t="n">
+      <c r="O32" s="9">
         <v>96.4</v>
       </c>
     </row>
@@ -1043,15 +1058,15 @@
         <v>10</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="3"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="9" t="n">
+      <c r="O33" s="9">
         <v>96.4</v>
       </c>
     </row>
@@ -1060,21 +1075,21 @@
         <v>11</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="3"/>
       <c r="N34" s="8"/>
-      <c r="O34" s="9" t="n">
+      <c r="O34" s="9">
         <v>96.4</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I35" s="8"/>
       <c r="K35" s="3"/>
@@ -1128,10 +1143,10 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="11" t="n">
-        <v>2180.2788</v>
+        <v>47</v>
+      </c>
+      <c r="O42" s="11">
+        <v>2188.38</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
